--- a/data/trans_camb/P5_6-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_6-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,2</t>
+          <t>-8,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,04</t>
+          <t>-3,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,13</t>
+          <t>-5,62</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 1,1</t>
+          <t>-31,7; 1,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,88; -0,26</t>
+          <t>-10,9; 3,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,03; -0,62</t>
+          <t>-16,52; -0,07</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,48%</t>
+          <t>-9,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,18%</t>
+          <t>-3,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,33%</t>
+          <t>-6,03%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,54; 1,23</t>
+          <t>-36,12; 1,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,11; -0,26</t>
+          <t>-11,21; 3,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,48; -0,71</t>
+          <t>-17,78; -0,09</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-0,91</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 1,85</t>
+          <t>-3,34; 2,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 1,44</t>
+          <t>-4,44; 1,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 0,8</t>
+          <t>-3,28; 1,31</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,0%</t>
+          <t>-0,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,19%</t>
+          <t>-1,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,1%</t>
+          <t>-0,95%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 1,97</t>
+          <t>-3,44; 2,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 1,54</t>
+          <t>-4,54; 1,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 0,85</t>
+          <t>-3,38; 1,38</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-3,7</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-1,99</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 0,64</t>
+          <t>-7,98; -0,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 2,55</t>
+          <t>-4,63; 3,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 0,9</t>
+          <t>-4,93; 0,63</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,09%</t>
+          <t>-3,76%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,38%</t>
+          <t>-0,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,27%</t>
+          <t>-2,06%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 0,77</t>
+          <t>-8,06; -0,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 2,72</t>
+          <t>-4,85; 3,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 0,97</t>
+          <t>-5,08; 0,63</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-2,08</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 0,09</t>
+          <t>-5,42; 0,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 0,15</t>
+          <t>-4,22; 0,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,41; -0,37</t>
+          <t>-4,19; -0,2</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,97%</t>
+          <t>-2,36%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,66%</t>
+          <t>-2,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-1,81%</t>
+          <t>-2,18%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 0,1</t>
+          <t>-5,61; 0,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 0,17</t>
+          <t>-4,39; 0,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,55; -0,39</t>
+          <t>-4,37; -0,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-2,58</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,56</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-2,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-5,38; -0,59</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,4; 0,17</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; -0,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-2,7%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-1,64%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-2,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; -0,63</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-3,54; 0,18</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; -0,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P5_6-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_6-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-8,31</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,56</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,62</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-6.899660430620314</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-4.029299773415673</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-5.206042129613698</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-31,7; 1,83</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-10,9; 3,16</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-16,52; -0,07</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-27.16681677548182</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-11.51927838350769</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-14.27174300644599</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-9,12%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,76%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-6,03%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.333218360100052</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.962285660125244</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.1497213879691896</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-36,12; 1,77</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-11,21; 3,43</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-17,78; -0,09</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.07572473902736465</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.04251415546242442</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.05593251475195884</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,42</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,36</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,91</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.289782689267957</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.1201178968699384</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1523036005620116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,34; 2,77</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,44; 1,54</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,28; 1,31</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.02605474109967316</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.03190339263008759</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.001506958633356073</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,44%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,41%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,95%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.3980865836184067</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.221174746632658</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.8275727762502849</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,44; 2,96</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,54; 1,6</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,38; 1,38</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.311413929979447</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.281843688336371</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.167334951518883</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-3,7</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,55</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,99</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.855126020530201</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.621847472994754</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.368576954014727</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-7,98; -0,28</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,63; 3,32</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,93; 0,63</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.004150145066619791</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.01265033158234542</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.008598921377517825</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-3,76%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,58%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-2,06%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.0340170908585248</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.04387096890569839</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.03229072185344581</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-8,06; -0,32</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,85; 3,58</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-5,08; 0,63</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.03093731553310788</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.01693927511456315</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.01439456101466312</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-2,26</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-1,9</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-2,08</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-3.295646917038664</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-1.557988281358713</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-2.307376107854375</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-5,42; 0,3</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-4,22; 0,61</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-4,19; -0,2</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-7.404602006168258</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-6.360129449867752</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-5.507774681506445</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-2,36%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-2,0%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-2,18%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0.1137924367702924</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>2.629331996840388</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.286272120590489</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-5,61; 0,31</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-4,39; 0,64</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-4,37; -0,21</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.03351429584975085</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.0164764849727745</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.02395990811052681</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-2,58</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-1,56</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-2,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.07480719084856896</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.06677066306905213</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.05616076098156792</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-5,38; -0,59</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-3,4; 0,17</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-3,6; -0,7</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.0009706697109404216</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.0283487708881011</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.002923476121096394</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-2,7%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-1,64%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-2,16%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-2.430067519137302</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-1.894107604252748</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-2.146634532714531</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-5,67; -0,63</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-3,54; 0,18</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-3,77; -0,74</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-6.682909744027365</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.361152099985315</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-4.494638443913717</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.1709456704441748</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.7288626183156929</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-0.4761520733159675</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.02533170576749903</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.0198269238373054</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.0224264886976206</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.06941845915361648</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.0449387775495555</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.04667704464815861</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.001546411851792378</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.007785553431486981</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.005041588217470695</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
